--- a/Test Cases_Reports-June 2014 Release.xlsx
+++ b/Test Cases_Reports-June 2014 Release.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1155" windowWidth="20115" windowHeight="6915" tabRatio="763"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="Ammendment History" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10987" uniqueCount="2408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10988" uniqueCount="2409">
   <si>
     <t>Req. Id</t>
   </si>
@@ -18966,6 +18966,9 @@
   </si>
   <si>
     <t>Test cases for addition - Benazir</t>
+  </si>
+  <si>
+    <t>new additon - benazir</t>
   </si>
 </sst>
 </file>
@@ -19784,10 +19787,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20139,7 +20142,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20151,28 +20154,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="190" t="s">
         <v>2299</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -20438,8 +20441,13 @@
       <c r="B23" t="s">
         <v>2406</v>
       </c>
-      <c r="C23" s="190" t="s">
+      <c r="C23" s="189" t="s">
         <v>2407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="189" t="s">
+        <v>2408</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
